--- a/public/cohort/fileExcel/xlsxUIT/OPEN/CKV_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/CKV_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -885,49 +885,28 @@
     <t>H</t>
   </si>
   <si>
-    <t>OriÃ«ntatie + kunstbiografie</t>
+    <t>Periodecijfer kunstdossier; kunstdisciplines en dimensies</t>
   </si>
   <si>
-    <t>A</t>
+    <t>A, B, C en D</t>
   </si>
   <si>
     <t>startJaar</t>
   </si>
   <si>
-    <t>Culturele Activiteit 1 - kunstdiscipline + dimensie(s)</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>cid</t>
   </si>
   <si>
-    <t>Culturele Activiteit 2 - kunstdiscipline + dimensie(s)</t>
+    <t>Periodecijfer kunstdossier; kunstdisciplines, dimensies &amp; onderzoek</t>
   </si>
   <si>
     <t>eindJaar</t>
   </si>
   <si>
-    <t>Culturele Activiteit 3 - kunstdiscipline + dimensie(s)</t>
-  </si>
-  <si>
     <t>vandaag</t>
   </si>
   <si>
-    <t>Onderzoek</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>huidigStartjaar</t>
-  </si>
-  <si>
-    <t>Reflectie + magazine</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>huidigSchooljaar</t>
@@ -942,10 +921,46 @@
     <t>mavo?</t>
   </si>
   <si>
+    <t>Oriëntatie + kunstbiografie</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Culturele Activiteit 1 - kunstdiscipline + dimensie(s)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Culturele Activiteit 2 - kunstdiscipline + dimensie(s)</t>
+  </si>
+  <si>
+    <t>Culturele Activiteit 3 - kunstdiscipline + dimensie(s)</t>
+  </si>
+  <si>
+    <t>Onderzoek</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Reflectie + magazine</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Periodecijfer kunstdossier; Kunstdisciplines en dimensies</t>
+  </si>
+  <si>
+    <t>Periodecijfer kunstdossier; Kunstdisciplines, dimensies &amp; onderzoek</t>
+  </si>
+  <si>
     <t>Culturele Activiteit 4 - kunstdiscipline + dimensie(s)</t>
   </si>
   <si>
-    <t>OriÃ«ntatie (CZP1) + Reflectie (CZP2) + magazine</t>
+    <t>Oriëntatie (CZP1) + Reflectie (CZP2) + magazine</t>
   </si>
   <si>
     <t>A, D</t>
@@ -2334,7 +2349,7 @@
         <v>63</v>
       </c>
       <c r="I6" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>19</v>
@@ -2429,10 +2444,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I7" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>19</v>
@@ -2449,7 +2464,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2514,7 +2529,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>203</v>
@@ -2527,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I8" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>19</v>
@@ -2547,7 +2562,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -2612,7 +2627,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2623,13 +2638,13 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I9" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>19</v>
@@ -2646,7 +2661,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2711,42 +2726,32 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
-      </c>
-      <c r="D10" s="2">
-        <v>734</v>
-      </c>
+        <v>44385.633321759</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="45">
-        <v>1</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="45"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="46">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>74</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2810,42 +2815,32 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>735</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="45">
-        <v>2</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="45"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>77</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2909,7 +2904,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2932,7 +2927,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2971,7 +2966,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3001,7 +2996,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4627,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -4647,7 +4642,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -4725,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -4745,7 +4740,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4810,7 +4805,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>146</v>
@@ -4823,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4843,7 +4838,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -4908,7 +4903,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4922,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -4942,7 +4937,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5007,11 +5002,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633321759</v>
       </c>
       <c r="D10" s="2">
         <v>487</v>
@@ -5021,7 +5016,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -5041,7 +5036,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -5106,7 +5101,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5120,7 +5115,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5140,7 +5135,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -5205,7 +5200,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5228,7 +5223,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5267,7 +5262,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5297,7 +5292,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7086,7 +7081,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>147</v>
@@ -7174,7 +7169,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7263,11 +7258,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633321759</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7352,7 +7347,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7441,7 +7436,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7464,7 +7459,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7503,7 +7498,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7533,7 +7528,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -9149,7 +9144,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2">
         <v>736</v>
@@ -9159,10 +9154,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I6" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>19</v>
@@ -9179,7 +9174,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -9257,10 +9252,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I7" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>19</v>
@@ -9277,7 +9272,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -9342,7 +9337,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>204</v>
@@ -9355,10 +9350,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I8" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>19</v>
@@ -9375,7 +9370,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -9440,7 +9435,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9451,13 +9446,13 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I9" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>19</v>
@@ -9474,7 +9469,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -9539,42 +9534,32 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
-      </c>
-      <c r="D10" s="2">
-        <v>740</v>
-      </c>
+        <v>44385.633321759</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="45">
-        <v>1</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="45"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="46">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>74</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9638,42 +9623,32 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>741</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="45">
-        <v>2</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="45"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>84</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9737,7 +9712,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9760,7 +9735,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9799,7 +9774,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9829,7 +9804,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11447,7 +11422,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2">
         <v>489</v>
@@ -11457,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11477,7 +11452,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11555,7 +11530,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -11575,7 +11550,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11640,7 +11615,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>148</v>
@@ -11653,7 +11628,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11673,7 +11648,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11738,7 +11713,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11752,7 +11727,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -11772,7 +11747,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -11837,11 +11812,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2">
         <v>493</v>
@@ -11851,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -11871,7 +11846,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -11936,7 +11911,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -11950,7 +11925,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -11970,7 +11945,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -12035,7 +12010,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12058,7 +12033,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12097,7 +12072,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12127,7 +12102,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -13745,7 +13720,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13918,7 +13893,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>149</v>
@@ -14006,7 +13981,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14095,11 +14070,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14184,7 +14159,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14273,7 +14248,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14296,7 +14271,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14335,7 +14310,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14365,7 +14340,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -15983,7 +15958,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16156,7 +16131,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>150</v>
@@ -16244,7 +16219,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16333,11 +16308,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16422,7 +16397,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16511,7 +16486,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16534,7 +16509,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16573,7 +16548,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16603,7 +16578,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/CKV_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/CKV_OPEN.xlsx
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2">
         <v>487</v>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2">
         <v>493</v>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
